--- a/ig/ch-epr-term/ValueSet-DocumentEntry.Ext.EprDeletionStatus.xlsx
+++ b/ig/ch-epr-term/ValueSet-DocumentEntry.Ext.EprDeletionStatus.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.756.5.30.1.127.3.10.15.3 (use: OFFICIAL)</t>
+    <t>id: Uniform Resource Identifier (URI)#urn:oid:2.16.756.5.30.1.127.3.10.15.3 (use: OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.0.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T18:08:17+02:00</t>
+    <t>2023-12-19T12:39:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
